--- a/data/trans_orig/P14A23_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A23_2015-Provincia-trans_orig.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,58%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,55%</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>20,53%</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>84,04%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>66,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>76,89%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,69%</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,11%</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>6,12%</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2469,12 +2469,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>97,9%</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
